--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/RHODE_ISLAND_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/RHODE_ISLAND_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Soyalo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Zapotitlan Tablas</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ixtlahuacan Del Rio</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tarimbaro</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Huehuetlan El Chico</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1497,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -1510,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -1523,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Juan Rodriguez Clara</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1562,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -1575,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -1601,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1614,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1627,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
